--- a/office__excel__openpyxl__xlwt/find_cells_by_color/excel.xlsx
+++ b/office__excel__openpyxl__xlwt/find_cells_by_color/excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="0" windowWidth="27690" windowHeight="13020"/>
+    <workbookView xWindow="2220" yWindow="0" windowWidth="27690" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -112,13 +112,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,7 +446,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +480,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -488,7 +488,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
